--- a/documents/market-comparison.xlsx
+++ b/documents/market-comparison.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
   <si>
     <t>Продукт</t>
   </si>
@@ -90,16 +90,28 @@
     <t>С ограничением мест</t>
   </si>
   <si>
-    <t>Пропорционально билету</t>
-  </si>
-  <si>
-    <t>Ежемесячная подписка</t>
-  </si>
-  <si>
-    <t>Бесплатно</t>
-  </si>
-  <si>
     <t>Малые (99-)</t>
+  </si>
+  <si>
+    <t>доступно</t>
+  </si>
+  <si>
+    <t>затратно</t>
+  </si>
+  <si>
+    <t>не реализовано</t>
+  </si>
+  <si>
+    <t>требует разработки</t>
+  </si>
+  <si>
+    <t>пропорционально билету</t>
+  </si>
+  <si>
+    <t>ежемесячная подписка</t>
+  </si>
+  <si>
+    <t>без дополнительной комиссии</t>
   </si>
 </sst>
 </file>
@@ -301,74 +313,794 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -719,7 +1451,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,365 +1460,365 @@
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>15</v>
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>15</v>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>15</v>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>15</v>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>16</v>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>15</v>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>15</v>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>26</v>
+      <c r="B10" s="23"/>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1099,14 +1831,28 @@
     <mergeCell ref="A11:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:I10">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Бесплатно">
-      <formula>NOT(ISERROR(SEARCH("Бесплатно",C10)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="без дополнительной комиссии">
+      <formula>NOT(ISERROR(SEARCH("без дополнительной комиссии",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Ежемесячная подписка">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Ежемесячная подписка">
       <formula>NOT(ISERROR(SEARCH("Ежемесячная подписка",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Пропорционально билету">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Пропорционально билету">
       <formula>NOT(ISERROR(SEARCH("Пропорционально билету",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I9">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="доступно">
+      <formula>NOT(ISERROR(SEARCH("доступно",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="затратно">
+      <formula>NOT(ISERROR(SEARCH("затратно",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="требует разработки">
+      <formula>NOT(ISERROR(SEARCH("требует разработки",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="не реализовано">
+      <formula>NOT(ISERROR(SEARCH("не реализовано",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,8 +1860,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{3E9CBA05-CA15-4A36-B2CF-F183514FCBC4}">
-            <xm:f>NOT(ISERROR(SEARCH("+",C2)))</xm:f>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{E7BAA008-B459-40C5-BE3F-B3947E18D1EF}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C11)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{8028D408-7D8E-4BF7-990C-4EA67D6DC4AB}">
+            <xm:f>NOT(ISERROR(SEARCH("+",C11)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1128,21 +1888,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{BE7EAC07-377F-472E-A80D-1AF474E9A124}">
-            <xm:f>NOT(ISERROR(SEARCH("-",C2)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C11:I13 C2:I9</xm:sqref>
+          <xm:sqref>C11:I13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
